--- a/ExcelFile/PhieuNhap/Test.xlsx
+++ b/ExcelFile/PhieuNhap/Test.xlsx
@@ -6,13 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="danhsach" r:id="rId3" sheetId="1"/>
+    <sheet name="Phiếu nhập" r:id="rId3" sheetId="1"/>
+    <sheet name="Chi Tiết Phiếu" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
   <si>
     <t/>
   </si>
@@ -23,7 +24,7 @@
     <t>Mã nhân viên</t>
   </si>
   <si>
-    <t>Mã khách hàng</t>
+    <t>Mã nhà xuất bản</t>
   </si>
   <si>
     <t>Ngày nhập</t>
@@ -32,49 +33,43 @@
     <t>Tổng tiền</t>
   </si>
   <si>
-    <t>1</t>
+    <t>Mã phiếu</t>
+  </si>
+  <si>
+    <t>Mã sách</t>
+  </si>
+  <si>
+    <t>Tên sách</t>
+  </si>
+  <si>
+    <t>Giá sách</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>3121410598</t>
   </si>
   <si>
-    <t>NXB-006</t>
+    <t>NXB-003</t>
   </si>
   <si>
     <t>01/05/2023</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>NXB-003</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>NXB-015</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>027</t>
+  </si>
+  <si>
+    <t>Cuoc doi cua Pi</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>3121411698</t>
-  </si>
-  <si>
-    <t>NXB-005</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>NXB-020</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>8</t>
@@ -122,7 +117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -147,138 +142,134 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>3.9E7</v>
+        <v>8000000.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>8000000.0</v>
+        <v>1.6E7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>8000000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="E1" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>160000.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>160000.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>160000.0</v>
+      </c>
       <c r="E4" t="n" s="0">
-        <v>3.0E7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E5" t="n" s="0">
-        <v>2.625E7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>1.5E7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E7" t="n" s="0">
-        <v>1.05E8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E8" t="n" s="0">
-        <v>1.6E7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E9" t="n" s="0">
-        <v>8000000.0</v>
+        <v>50.0</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFile/PhieuNhap/Test.xlsx
+++ b/ExcelFile/PhieuNhap/Test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t/>
   </si>
@@ -48,31 +48,28 @@
     <t>Số lượng</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3121410598</t>
-  </si>
-  <si>
-    <t>NXB-003</t>
-  </si>
-  <si>
-    <t>01/05/2023</t>
-  </si>
-  <si>
-    <t>027</t>
-  </si>
-  <si>
-    <t>Cuoc doi cua Pi</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>26</t>
   </si>
   <si>
     <t>3121411698</t>
   </si>
   <si>
-    <t>8</t>
+    <t>NXB-004</t>
+  </si>
+  <si>
+    <t>06/05/2023</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Dac Nhan Tam</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>121</t>
   </si>
 </sst>
 </file>
@@ -117,7 +114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -154,7 +151,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>8000000.0</v>
+        <v>1.0E9</v>
       </c>
     </row>
     <row r="3">
@@ -171,24 +168,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>1.6E7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>8000000.0</v>
+        <v>1.0E9</v>
       </c>
     </row>
   </sheetData>
@@ -198,7 +178,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -223,7 +203,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>2.0</v>
+        <v>26.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>15</v>
@@ -232,15 +212,15 @@
         <v>16</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>160000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>50.0</v>
+        <v>10000.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>7.0</v>
+        <v>28.0</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>15</v>
@@ -249,27 +229,10 @@
         <v>16</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>160000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>160000.0</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>50.0</v>
+        <v>10000.0</v>
       </c>
     </row>
   </sheetData>
